--- a/biology/Histoire de la zoologie et de la botanique/Léon_Camille_Marius_Croizat/Léon_Camille_Marius_Croizat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léon_Camille_Marius_Croizat/Léon_Camille_Marius_Croizat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Camille_Marius_Croizat</t>
+          <t>Léon_Camille_Marius_Croizat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Camille Marius Croizat, né le 16 juillet 1894 à Turin et mort le 30 novembre 1982 à Coro au Venezuela, est un aquarelliste, botaniste et panbiogéographe italien d'origine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Camille_Marius_Croizat</t>
+          <t>Léon_Camille_Marius_Croizat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses études de droit à Turin sont interrompues par la Première Guerre mondiale durant laquelle, de 1914 à 1919, il sert dans l'armée italienne où il devient capitaine d'infanterie, se marie et a un premier enfant, avant d'obtenir son diplôme de droit en 1920. Mais n'étant pas en accord avec le fascisme naissant, il émigre aux États-Unis en 1923, tentant de vivre de son talent artistique. La crise de 1929-1930 l'incite à venir en France où ni lui ni son épouse n'obtiennent de permis de travail : le considère-t-on alors comme étant un Italien ?
 De retour aux États-Unis, après avoir surmonté de très dures conditions matérielles, il devient illustrateur et technicien en botanique et commence à étudier les Euphorbiaceae (dont il deviendra un spécialiste) à l'Université Harvard, mais il ne peut faire carrière dans l'arboretum de cette université où il travaille de 1936 à 1946.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Camille_Marius_Croizat</t>
+          <t>Léon_Camille_Marius_Croizat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1952 : Manual of Phytogeography or an account of plant-dispersal throughout the world
 1958 : Panbiogeography or an introductory synthesis of Zoogeography, Phytogeography, and Geology; with notes on evolution, systematics, ecology, anthropology, etc… (3 volumes) (Panbiogeography Gate)
